--- a/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5213F9AB-E343-4157-B27F-1AFEA61D9DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178BC8FF-C41A-419B-8DC0-8329EE270F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Key</t>
   </si>
@@ -47,19 +47,40 @@
     <t>Polish</t>
   </si>
   <si>
-    <t>EmailTitle0</t>
-  </si>
-  <si>
-    <t>EmailContent0</t>
-  </si>
-  <si>
-    <t>test tytle</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test content</t>
+    <t>&lt;i&gt;bruteForce&lt;/i&gt; - starts brute force programm</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;bruteForce&lt;/i&gt; - rozpoczyna atak typu brute force</t>
+  </si>
+  <si>
+    <t>dictionaryAttack</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;dictionaryAttack&lt;/i&gt; - starts dictionary attack programm</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;dictionaryAttack&lt;/i&gt; - rozpoczyna atak słownikowy</t>
+  </si>
+  <si>
+    <t>manInTheMiddle</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;manInTheMiddle&lt;/i&gt; - starts UI for man in the middle attack</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;manInTheMiddle&lt;/i&gt; - uruchamia UI dla ataku man in the middle</t>
+  </si>
+  <si>
+    <t>fakeSignature</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;fakeSignature&lt;/i&gt; - starts UI for forgery of notary signature</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;fakeSignature&lt;/i&gt; - uruchamia UI dla podrobienia podpisu notarialnego</t>
+  </si>
+  <si>
+    <t>brutForse</t>
   </si>
 </sst>
 </file>
@@ -96,8 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -432,46 +456,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3952D7-A9B1-4A2B-A865-60B8FC46C43B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178BC8FF-C41A-419B-8DC0-8329EE270F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C132A6-9237-467B-9FD1-847710F079CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Key</t>
   </si>
@@ -81,16 +81,68 @@
   </si>
   <si>
     <t>brutForse</t>
+  </si>
+  <si>
+    <t>cd - change directory</t>
+  </si>
+  <si>
+    <t>ls - list files</t>
+  </si>
+  <si>
+    <t>ssh - connect to device via ssh protocol</t>
+  </si>
+  <si>
+    <t>scp - copy files from remote machines via ssh</t>
+  </si>
+  <si>
+    <t>cd - zmień katalog</t>
+  </si>
+  <si>
+    <t>ls - wyświetl listę plików</t>
+  </si>
+  <si>
+    <t>ssh - połącz się z urządzeniem za pomocą protokołu ssh</t>
+  </si>
+  <si>
+    <t>scp - skopiuj pliki ze zdalnych maszyn za pomocą ssh</t>
+  </si>
+  <si>
+    <t>mkdir - utwórz katalog</t>
+  </si>
+  <si>
+    <t>mkdir - create directory</t>
+  </si>
+  <si>
+    <t>command0</t>
+  </si>
+  <si>
+    <t>command1</t>
+  </si>
+  <si>
+    <t>command2</t>
+  </si>
+  <si>
+    <t>command3</t>
+  </si>
+  <si>
+    <t>command4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -456,11 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3952D7-A9B1-4A2B-A865-60B8FC46C43B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +576,63 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C132A6-9237-467B-9FD1-847710F079CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F397359-AD66-422C-AE7B-0EDECE19102B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Polish</t>
-  </si>
-  <si>
     <t>&lt;i&gt;bruteForce&lt;/i&gt; - starts brute force programm</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>command4</t>
+  </si>
+  <si>
+    <t>Polski</t>
   </si>
 </sst>
 </file>
@@ -512,16 +512,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,106 +529,106 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F397359-AD66-422C-AE7B-0EDECE19102B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D9019-51F0-45DD-B270-0FF6BE05A9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Key</t>
   </si>
@@ -126,6 +126,288 @@
   </si>
   <si>
     <t>Polski</t>
+  </si>
+  <si>
+    <t>rainbowAttack</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;rainbowAttack&lt;/i&gt; - starts raibow table attack programm</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;rainbowAttack&lt;/i&gt; - rozpoczyna atak z wykorzystaniem tablic tęczowych</t>
+  </si>
+  <si>
+    <t>continoue_key</t>
+  </si>
+  <si>
+    <t>Continoue game</t>
+  </si>
+  <si>
+    <t>Start game</t>
+  </si>
+  <si>
+    <t>Rozpocznij gre</t>
+  </si>
+  <si>
+    <t>Kontynuuj gre</t>
+  </si>
+  <si>
+    <t>start_key</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Glossary</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Save changes</t>
+  </si>
+  <si>
+    <t>Exit to menu</t>
+  </si>
+  <si>
+    <t>Zadania</t>
+  </si>
+  <si>
+    <t>Notatki</t>
+  </si>
+  <si>
+    <t>Glosariusz</t>
+  </si>
+  <si>
+    <t>Widok sieci firmy "{0}"</t>
+  </si>
+  <si>
+    <t>Opcje</t>
+  </si>
+  <si>
+    <t>Język</t>
+  </si>
+  <si>
+    <t>Zapisz zmiany</t>
+  </si>
+  <si>
+    <t>Warning! After saving changes system will have to reload proceed with conscious!</t>
+  </si>
+  <si>
+    <t>Ostrzeżenie! Po zapisaniu zmian system będzie musiał zostać ponownie załadowany, kontynuuj świadomie!</t>
+  </si>
+  <si>
+    <t>Wyjdź do meni</t>
+  </si>
+  <si>
+    <t>tasks_key</t>
+  </si>
+  <si>
+    <t>terminal_key</t>
+  </si>
+  <si>
+    <t>system_key</t>
+  </si>
+  <si>
+    <t>notes_key</t>
+  </si>
+  <si>
+    <t>glossary_key</t>
+  </si>
+  <si>
+    <t>options_key</t>
+  </si>
+  <si>
+    <t>language_key</t>
+  </si>
+  <si>
+    <t>companyNameLabel_key</t>
+  </si>
+  <si>
+    <t>saveChanges_btn_key</t>
+  </si>
+  <si>
+    <t>warrningSaveLabel_key</t>
+  </si>
+  <si>
+    <t>exitToMenu_btn_key</t>
+  </si>
+  <si>
+    <t>yourNotes_key</t>
+  </si>
+  <si>
+    <t>systemNotes_key</t>
+  </si>
+  <si>
+    <t>linuxNotes_key</t>
+  </si>
+  <si>
+    <t>Your Notes</t>
+  </si>
+  <si>
+    <t>System Notes</t>
+  </si>
+  <si>
+    <t>Linux Notes</t>
+  </si>
+  <si>
+    <t>Twoje Notatki</t>
+  </si>
+  <si>
+    <t>Noty Systemowe</t>
+  </si>
+  <si>
+    <t>Noty Linuxowe</t>
+  </si>
+  <si>
+    <t>subject_key</t>
+  </si>
+  <si>
+    <t>from_key</t>
+  </si>
+  <si>
+    <t>letter_key</t>
+  </si>
+  <si>
+    <t>openAttachment_btn_key</t>
+  </si>
+  <si>
+    <t>sentFile_btn_key</t>
+  </si>
+  <si>
+    <t>Subject:</t>
+  </si>
+  <si>
+    <t>From:</t>
+  </si>
+  <si>
+    <t>Letter:</t>
+  </si>
+  <si>
+    <t>Open Attachment</t>
+  </si>
+  <si>
+    <t>Sent File</t>
+  </si>
+  <si>
+    <t>Tytuł:</t>
+  </si>
+  <si>
+    <t>Od:</t>
+  </si>
+  <si>
+    <t>List:</t>
+  </si>
+  <si>
+    <t>Otwórz Załącznik</t>
+  </si>
+  <si>
+    <t>Wyślij Plik</t>
+  </si>
+  <si>
+    <t>taskName_3_1</t>
+  </si>
+  <si>
+    <t>taskName_3_2</t>
+  </si>
+  <si>
+    <t>taskName_3_3</t>
+  </si>
+  <si>
+    <t>taskName_3_4</t>
+  </si>
+  <si>
+    <t>taskName_3_5</t>
+  </si>
+  <si>
+    <t>taskContent_3_1</t>
+  </si>
+  <si>
+    <t>taskContent_3_2</t>
+  </si>
+  <si>
+    <t>taskContent_3_3</t>
+  </si>
+  <si>
+    <t>taskContent_3_4</t>
+  </si>
+  <si>
+    <t>taskContent_3_5</t>
+  </si>
+  <si>
+    <t>name 1</t>
+  </si>
+  <si>
+    <t>content 1</t>
+  </si>
+  <si>
+    <t>name 2</t>
+  </si>
+  <si>
+    <t>content 2</t>
+  </si>
+  <si>
+    <t>name 3</t>
+  </si>
+  <si>
+    <t>content 3</t>
+  </si>
+  <si>
+    <t>name 4</t>
+  </si>
+  <si>
+    <t>content 4</t>
+  </si>
+  <si>
+    <t>name 5</t>
+  </si>
+  <si>
+    <t>content 5</t>
+  </si>
+  <si>
+    <t>nazwa 1</t>
+  </si>
+  <si>
+    <t>nazwa 2</t>
+  </si>
+  <si>
+    <t>nazwa 3</t>
+  </si>
+  <si>
+    <t>nazwa 4</t>
+  </si>
+  <si>
+    <t>nazwa 5</t>
+  </si>
+  <si>
+    <t>wartosc 1</t>
+  </si>
+  <si>
+    <t>wartosc 2</t>
+  </si>
+  <si>
+    <t>wartosc 3</t>
+  </si>
+  <si>
+    <t>wartosc 4</t>
+  </si>
+  <si>
+    <t>wartosc 5</t>
+  </si>
+  <si>
+    <t>View of a {0} company network</t>
   </si>
 </sst>
 </file>
@@ -508,20 +790,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3952D7-A9B1-4A2B-A865-60B8FC46C43B}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -543,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -554,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -565,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -576,59 +859,411 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D9019-51F0-45DD-B270-0FF6BE05A9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AC3111-2718-4582-949C-4D7DB8E46AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>Key</t>
   </si>
@@ -408,6 +408,42 @@
   </si>
   <si>
     <t>View of a {0} company network</t>
+  </si>
+  <si>
+    <t>WARNING</t>
+  </si>
+  <si>
+    <t>warningLabel_key</t>
+  </si>
+  <si>
+    <t>OSTRZEŻENIE</t>
+  </si>
+  <si>
+    <t>aprove_btn_key</t>
+  </si>
+  <si>
+    <t>disaporve_btn_key</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>exitSystemMEssage_key</t>
+  </si>
+  <si>
+    <t>Are you sure you want to exit HackSafe system?</t>
+  </si>
+  <si>
+    <t>Czy na pewno chcesz opuścić HackSafe system?</t>
   </si>
 </sst>
 </file>
@@ -790,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3952D7-A9B1-4A2B-A865-60B8FC46C43B}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,111 +1194,155 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>122</v>
       </c>
     </row>

--- a/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AC3111-2718-4582-949C-4D7DB8E46AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2027EB55-7C8C-4CD0-9EC0-C87F38E7AEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="210">
   <si>
     <t>Key</t>
   </si>
@@ -444,13 +444,235 @@
   </si>
   <si>
     <t>Czy na pewno chcesz opuścić HackSafe system?</t>
+  </si>
+  <si>
+    <t>cd comment</t>
+  </si>
+  <si>
+    <t>cdCommand_title</t>
+  </si>
+  <si>
+    <t>Polecenie cd</t>
+  </si>
+  <si>
+    <t>ls commend</t>
+  </si>
+  <si>
+    <t>Polecenie ls</t>
+  </si>
+  <si>
+    <t>The ls command writes to standard output the contents of each specified Directory parameter or the name of each specified File parameter. If you do not specify a File or Directory parameter, the ls command displays the contents of the current directory.</t>
+  </si>
+  <si>
+    <t>Polecenie ls wyświetla na standardowym wyjściu zawartość każdego określonego w parametrach katalogu lub nazwę każdego określonego parametrem pliku. Jeżeli nie określono w parametrach pliku lub katalogu, polecenie ls wyświetla zawartość bieżącego katalogu.</t>
+  </si>
+  <si>
+    <t>lsCommand_title</t>
+  </si>
+  <si>
+    <t>lsCommand_content</t>
+  </si>
+  <si>
+    <t>cat commend</t>
+  </si>
+  <si>
+    <t>Polecenie cat</t>
+  </si>
+  <si>
+    <t>ssh commend</t>
+  </si>
+  <si>
+    <t>Polecenie ssh</t>
+  </si>
+  <si>
+    <t>scp command</t>
+  </si>
+  <si>
+    <t>Polecenie scp</t>
+  </si>
+  <si>
+    <t>scpCommand_title</t>
+  </si>
+  <si>
+    <t>sshCommand_title</t>
+  </si>
+  <si>
+    <t>catCommand_title</t>
+  </si>
+  <si>
+    <t>mkdirCommand_title</t>
+  </si>
+  <si>
+    <t>mkdir command</t>
+  </si>
+  <si>
+    <t>Polecenie mkdir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd: The cd command will allow you to change directories. When you open a terminal you will be in your home directory. To move around the file system you will use cd. Examples: </t>
+  </si>
+  <si>
+    <t>cdCommand_content_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To navigate into the root directory, use $ cd / </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To navigate to your home directory, use $ cd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To navigate up one directory level, use $ cd .. </t>
+  </si>
+  <si>
+    <t>To navigate through multiple levels of directory at once, specify the full directory path that you want to go to. For example, use, $ cd /var/www to go directly to the /www subdirectory of /var/.</t>
+  </si>
+  <si>
+    <t>cdCommand_content_2</t>
+  </si>
+  <si>
+    <t>cdCommand_content_3</t>
+  </si>
+  <si>
+    <t>cdCommand_content_4</t>
+  </si>
+  <si>
+    <t>cdCommand_content_5</t>
+  </si>
+  <si>
+    <t>cd: Polecenie cd umożliwia zmianę katalogów. Po otwarciu terminala znajdziesz się w swoim katalogu domowym. Aby poruszać się po systemie plików, użyj polecenia cd. Przykłady:</t>
+  </si>
+  <si>
+    <t>Aby przejść do katalogu głównego, użyj polecenia $ cd /</t>
+  </si>
+  <si>
+    <t>Aby przejść do katalogu domowego, użyj polecenia $ cd</t>
+  </si>
+  <si>
+    <t>Aby przejść o jeden poziom wyżej w katalogu, użyj polecenia $cd</t>
+  </si>
+  <si>
+    <t>Aby przejść przez wiele poziomów katalogu jednocześnie, określ pełną ścieżkę do katalogu, do którego chcesz przejść. Na przykład użyj polecenia  $ cd /var/www, aby przejść bezpośrednio do podkatalogu /www w katalogu /var/.</t>
+  </si>
+  <si>
+    <t>This command displays the data in the notes file.</t>
+  </si>
+  <si>
+    <t>The cat command reads each File parameter in sequence and writes it to standard output. To display a file at the workstation, enter:</t>
+  </si>
+  <si>
+    <t>$ cat notes</t>
+  </si>
+  <si>
+    <t>To polecenie wyświetla dane w pliku notes.</t>
+  </si>
+  <si>
+    <t>Polecenie cat odczytuje każdy parametr pliku w sekwencji i wypisuje go na standardowym wyjściu. Aby wyświetlić plik na stacji roboczej, wprowadź:</t>
+  </si>
+  <si>
+    <t>ssh (SSH client) is a program for logging into a remote machine and for executing commands on a remote machine. It is intended to provide secure encrypted communications between two untrusted hosts over an insecure network. X11 connections, arbitrary TCP ports and UNIX-domain sockets can also be forwarded over the secure channel.</t>
+  </si>
+  <si>
+    <t>ssh connects and logs into the specified destination, which is specified as user@host_ip. The user must prove their identity to the remote machine using password.</t>
+  </si>
+  <si>
+    <t>ssh (SSH client) to program do logowania się do zdalnej maszyny i wykonywania poleceń na zdalnej maszynie. Jego celem jest zapewnienie bezpiecznej szyfrowanej komunikacji między dwoma niezaufanymi hostami przez niezabezpieczoną sieć. Połączenia X11, dowolne porty TCP i gniazda domeny UNIX mogą być również przekazywane przez bezpieczny kanał.</t>
+  </si>
+  <si>
+    <t>ssh łączy się i loguje do określonego miejsca docelowego, które jest określone jako user@host_ip. Użytkownik musi udowodnić swoją tożsamość zdalnej maszynie za pomocą hasła.</t>
+  </si>
+  <si>
+    <t>scp copies files between hosts on a network. It uses ssh for data transfer, and uses the same authentication and provides the same security as ssh. scp will ask for passwords or passphrases if they are needed for authentication.</t>
+  </si>
+  <si>
+    <t>Examples:</t>
+  </si>
+  <si>
+    <t>$ scp your_username@remotehost.edu:foobar.txt /some/local/directory</t>
+  </si>
+  <si>
+    <t>Copy the file \"foobar.txt\" from the local host to a remote host:</t>
+  </si>
+  <si>
+    <t>$ scp foobar.txt your_username@remotehost.edu:/some/remote/directory</t>
+  </si>
+  <si>
+    <t>scpCommand_content_1</t>
+  </si>
+  <si>
+    <t>scpCommand_content_2</t>
+  </si>
+  <si>
+    <t>scpCommand_content_3</t>
+  </si>
+  <si>
+    <t>scpCommand_content_4</t>
+  </si>
+  <si>
+    <t>scpCommand_content_5</t>
+  </si>
+  <si>
+    <t>scpCommand_content_6</t>
+  </si>
+  <si>
+    <t>scp kopiuje pliki między hostami w sieci. Używa ssh do przesyłania danych i używa tego samego uwierzytelniania i zapewnia takie samo bezpieczeństwo jak ssh. scp poprosi o hasła lub frazy-hasła, jeśli są potrzebne do uwierzytelnienia.</t>
+  </si>
+  <si>
+    <t>Przykłady:</t>
+  </si>
+  <si>
+    <t>Skopiuj plik foobar.txt z lokalnego hosta na zdalny host:</t>
+  </si>
+  <si>
+    <t>Skopiuj plik foobar.txt ze zdalnego hosta na lokalny:</t>
+  </si>
+  <si>
+    <t>Copy the file foobar.txt from a remote host to the local host:</t>
+  </si>
+  <si>
+    <t>The mkdir command creates one or more new directories specified by the Directory parameter.</t>
+  </si>
+  <si>
+    <t>To create a new directory called Test in the current working directory, enter:</t>
+  </si>
+  <si>
+    <t>$ mkdir Test</t>
+  </si>
+  <si>
+    <t>Polecenie mkdir tworzy jeden lub więcej nowych katalogów określonych przez parametr Directory.</t>
+  </si>
+  <si>
+    <t>Aby utworzyć nowy katalog o nazwie Test w bieżącym katalogu roboczym, należy wywołać polecenie:</t>
+  </si>
+  <si>
+    <t>mkdirCommand_content_1</t>
+  </si>
+  <si>
+    <t>mkdirCommand_content_2</t>
+  </si>
+  <si>
+    <t>mkdirCommand_content_3</t>
+  </si>
+  <si>
+    <t>sshCommand_content_1</t>
+  </si>
+  <si>
+    <t>sshCommand_content_2</t>
+  </si>
+  <si>
+    <t>catCommand_content_1</t>
+  </si>
+  <si>
+    <t>catCommand_content_2</t>
+  </si>
+  <si>
+    <t>catCommand_content_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +683,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -484,16 +715,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -826,11 +1063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3952D7-A9B1-4A2B-A865-60B8FC46C43B}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1429,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -1203,7 +1440,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -1214,7 +1451,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -1225,7 +1462,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>133</v>
       </c>
@@ -1236,118 +1473,437 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2027EB55-7C8C-4CD0-9EC0-C87F38E7AEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D211BB-2325-4301-A19C-1C3380384E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="252">
   <si>
     <t>Key</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Glosariusz</t>
   </si>
   <si>
-    <t>Widok sieci firmy "{0}"</t>
-  </si>
-  <si>
     <t>Opcje</t>
   </si>
   <si>
@@ -666,13 +663,142 @@
   </si>
   <si>
     <t>catCommand_content_3</t>
+  </si>
+  <si>
+    <t>tutorialText_1</t>
+  </si>
+  <si>
+    <t>tutorialText_2</t>
+  </si>
+  <si>
+    <t>tutorialText_3</t>
+  </si>
+  <si>
+    <t>tutorialText_4</t>
+  </si>
+  <si>
+    <t>tutorialText_5</t>
+  </si>
+  <si>
+    <t>tutorialText_6</t>
+  </si>
+  <si>
+    <t>tutorialText_7</t>
+  </si>
+  <si>
+    <t>tutorialText_8</t>
+  </si>
+  <si>
+    <t>tutorialText_9</t>
+  </si>
+  <si>
+    <t>tutorialText_10</t>
+  </si>
+  <si>
+    <t>tutorialText_11</t>
+  </si>
+  <si>
+    <t>tutorialText_12</t>
+  </si>
+  <si>
+    <t>tutorialText_13</t>
+  </si>
+  <si>
+    <t>systemInfoLabel_key</t>
+  </si>
+  <si>
+    <t>System Info</t>
+  </si>
+  <si>
+    <t>Informacje o systemie</t>
+  </si>
+  <si>
+    <t>We are so happy that you choose our system for your hacking work. We assure you that our system will make your work more smooth and easy!</t>
+  </si>
+  <si>
+    <t>Jesteśmy bardzo szczęśliwi, że wybrałeś nasz system do swojej pracy jako haker. Zapewniamy, że nasz system sprawi, że Twoja praca będzie bardziej płynna i łatwiejsza!</t>
+  </si>
+  <si>
+    <t>Zacznijmy więc od podstaw i pokażmy, gdzie co się znajduje.</t>
+  </si>
+  <si>
+    <t>So let's start with basics and show you around where is what.</t>
+  </si>
+  <si>
+    <t>Let’s start form the top. The bar at contains home button (1) with which you can open this window if you want to refresh memory about the system, nest to it is settings button (2), save button (3) and mail button (4) that will open your mail box.</t>
+  </si>
+  <si>
+    <t>Zacznijmy od góry. Pasek zawiera przycisk home (1), za pomocą którego możesz otworzyć to okno, jeśli chcesz odświeżyć pamięć o systemie, obok niego znajduje się przycisk ustawień (2), przycisk zapisz (3) i przycisk poczty (4), który otworzy Twoją skrzynkę pocztową.</t>
+  </si>
+  <si>
+    <t>While pressing the far right X button you will close system so be cautious around it.</t>
+  </si>
+  <si>
+    <t>Naciśnięcie prawego skrajnego przycisku X spowoduje zamknięcie systemu, więc zachowaj ostrożność.</t>
+  </si>
+  <si>
+    <t>Let's now move a little bit lower on the left side there is a task panel where all your tasks that are important for current job will be shown. They are automatically generated by the system form the email from your employer.</t>
+  </si>
+  <si>
+    <t>Przejdźmy teraz trochę niżej, po lewej stronie znajduje się panel zadań, w którym wyświetlane są wszystkie zadania ważne dla bieżącej pracy. Są one automatycznie generowane przez system z wiadomości e-mail od pracodawcy.</t>
+  </si>
+  <si>
+    <t>Now let’s move a little on the right. This is second most important element of the screen: network view. When your employ will granted you an access to network where you will do your tasks the system will visualize it. The white nodes are the nodes without passwords, all people taht have access to network have access to this nodes. The red nodes represent devices that you don't have access yet. And finally the green nodes represents the devices which you successfully hacked.</t>
+  </si>
+  <si>
+    <t>Teraz przesuńmy się trochę w prawo. To jest drugi najważniejszy element ekranu: widok sieci. Kiedy Twój pracodawca przyzna Ci dostęp do sieci, w której będziesz wykonywać swoje zadania, system to zwizualizuje. Białe węzły to węzły bez haseł, wszystkie osoby, które mają dostęp do sieci, mają dostęp do tych węzłów. Czerwone węzły reprezentują urządzenia, do których jeszcze nie masz dostępu. I wreszcie zielone węzły reprezentują urządzenia, które udało Ci się zhakować.</t>
+  </si>
+  <si>
+    <t>If network view was second most important which view can be most important? Let's look a little more on the right and we will find out. The terminal panel! This is where you will do most of your work. Hack Safe system use its own version of Linux so terminal uses Linux commends. The most useful of them for you are listed in the notes and in glossary.</t>
+  </si>
+  <si>
+    <t>Jeśli widok sieciowy jest drugi pod względem ważności, który widok może być najważniejszy? Przyjrzyjmy się trochę bardziej prawej stronie, a się dowiemy. Panel terminala! To tutaj wykonasz większość swojej pracy. System Hack Safe używa własnej wersji Linuksa, więc terminal używa poleceń Linuksa. Najbardziej przydatne z nich dla Ciebie są wymienione w notatkach i w glosariuszu.</t>
+  </si>
+  <si>
+    <t>Witaj w HackSafe!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to HackSafe! </t>
+  </si>
+  <si>
+    <t>You may ask where are those notes, glossary? There are on the last panel we are going to elaborate on. The bottom panel.</t>
+  </si>
+  <si>
+    <t>The bottom panel contains 2 views that can be access by clicking the buttons 1 and 2. On the bottom bar there is also glossary button (3) that open glossary view.</t>
+  </si>
+  <si>
+    <t>Możesz zapytać, gdzie są te notatki, glosariusz? Są na ostatnim panelu, który omówimy. Dolny panel.</t>
+  </si>
+  <si>
+    <t>Dolny panel zawiera 2 widoki, do których można uzyskać dostęp, klikając przyciski 1 i 2. Na dolnym pasku znajduje się również przycisk glosariusza (3), który otwiera widok glosariusza.</t>
+  </si>
+  <si>
+    <t>Pierwszy widok to widok systemowy, w którym można monitorować wykorzystanie podzespołów urządzenia.</t>
+  </si>
+  <si>
+    <t>First view is the system view where you can monitor the usage of components of your device.</t>
+  </si>
+  <si>
+    <t>Widok notatek umożliwia dodawanie własnych notatek, a także zawiera notatki systemowe (dotyczące zainstalowanych programów) i notatki dotyczące systemu Linux (dotyczące ważnych poleceń systemu Linux).</t>
+  </si>
+  <si>
+    <t>And the notes view where you can write your own notes and where system notes (notes about installed programs) and Linux notes (notes about important Linux command) are.</t>
+  </si>
+  <si>
+    <t>Thats all form us. We encourage you to explore the system by yourself. And wish the best while working with HackSafe system.</t>
+  </si>
+  <si>
+    <t>To wszystko od nas. Zachęcamy do samodzielnego eksplorowania systemu. I życzymy powodzenia w pracy z systemem HackSafe.</t>
+  </si>
+  <si>
+    <t>Widok sieci firmy {0}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +823,12 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -719,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -727,6 +859,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1063,21 +1198,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3952D7-A9B1-4A2B-A865-60B8FC46C43B}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1121,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1132,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1143,7 +1278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1154,7 +1289,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1165,7 +1300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1176,7 +1311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1187,7 +1322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1198,7 +1333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1209,7 +1344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1220,9 +1355,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
@@ -1231,9 +1366,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>40</v>
@@ -1242,9 +1377,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>41</v>
@@ -1253,9 +1388,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
@@ -1264,9 +1399,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>43</v>
@@ -1275,630 +1410,784 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>67</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C51" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="D60" s="3"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>202</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>93</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>100</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
+++ b/HackSafe/Assets/Resources/LocalizationExcelSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Inżynierka\HackSafe\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D211BB-2325-4301-A19C-1C3380384E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F188437-E8D5-4401-BB74-E48110BEB256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C244F3DC-1BA1-4A4A-B6A1-7B35F6450258}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="316">
   <si>
     <t>Key</t>
   </si>
@@ -314,96 +314,6 @@
     <t>Wyślij Plik</t>
   </si>
   <si>
-    <t>taskName_3_1</t>
-  </si>
-  <si>
-    <t>taskName_3_2</t>
-  </si>
-  <si>
-    <t>taskName_3_3</t>
-  </si>
-  <si>
-    <t>taskName_3_4</t>
-  </si>
-  <si>
-    <t>taskName_3_5</t>
-  </si>
-  <si>
-    <t>taskContent_3_1</t>
-  </si>
-  <si>
-    <t>taskContent_3_2</t>
-  </si>
-  <si>
-    <t>taskContent_3_3</t>
-  </si>
-  <si>
-    <t>taskContent_3_4</t>
-  </si>
-  <si>
-    <t>taskContent_3_5</t>
-  </si>
-  <si>
-    <t>name 1</t>
-  </si>
-  <si>
-    <t>content 1</t>
-  </si>
-  <si>
-    <t>name 2</t>
-  </si>
-  <si>
-    <t>content 2</t>
-  </si>
-  <si>
-    <t>name 3</t>
-  </si>
-  <si>
-    <t>content 3</t>
-  </si>
-  <si>
-    <t>name 4</t>
-  </si>
-  <si>
-    <t>content 4</t>
-  </si>
-  <si>
-    <t>name 5</t>
-  </si>
-  <si>
-    <t>content 5</t>
-  </si>
-  <si>
-    <t>nazwa 1</t>
-  </si>
-  <si>
-    <t>nazwa 2</t>
-  </si>
-  <si>
-    <t>nazwa 3</t>
-  </si>
-  <si>
-    <t>nazwa 4</t>
-  </si>
-  <si>
-    <t>nazwa 5</t>
-  </si>
-  <si>
-    <t>wartosc 1</t>
-  </si>
-  <si>
-    <t>wartosc 2</t>
-  </si>
-  <si>
-    <t>wartosc 3</t>
-  </si>
-  <si>
-    <t>wartosc 4</t>
-  </si>
-  <si>
-    <t>wartosc 5</t>
-  </si>
-  <si>
     <t>View of a {0} company network</t>
   </si>
   <si>
@@ -792,6 +702,288 @@
   </si>
   <si>
     <t>Widok sieci firmy {0}</t>
+  </si>
+  <si>
+    <t>taskName1_1</t>
+  </si>
+  <si>
+    <t>taskContent1_1</t>
+  </si>
+  <si>
+    <t>taskName1_2</t>
+  </si>
+  <si>
+    <t>taskContent1_2</t>
+  </si>
+  <si>
+    <t>taskName1_3</t>
+  </si>
+  <si>
+    <t>taskContent1_3</t>
+  </si>
+  <si>
+    <t>Install bruteForce</t>
+  </si>
+  <si>
+    <t>Zainstaluj bruteForce</t>
+  </si>
+  <si>
+    <t>First you need to install bruteForce program. Use terminal and command apt install to do so. Instaling programs is not very safe operation so you may have to lunch apt install command with sudo permition.</t>
+  </si>
+  <si>
+    <t>Najpierw musisz zainstalować program bruteForce. Użyj terminala i polecenia apt install, aby to zrobić. Instalowanie programów nie jest zbyt bezpieczną operacją, więc może być konieczne uruchomienie polecenia apt install z pozwoleniem sudo.</t>
+  </si>
+  <si>
+    <t>Break Dave Password</t>
+  </si>
+  <si>
+    <t>Złam hasło Dave'a</t>
+  </si>
+  <si>
+    <t>Now when you have a tool it's time to use it. Use bruteForce command to break into Daves devise. Use -h parameter to get to know bruteForce command more.</t>
+  </si>
+  <si>
+    <t>Teraz, gdy masz narzędzie, czas go użyć. Użyj polecenia bruteForce, aby włamać się do urządzenie Dava. Użyj parametru -h, aby lepiej poznać polecenie bruteForce.</t>
+  </si>
+  <si>
+    <t>Zaloguj się do telefonu Dave'a</t>
+  </si>
+  <si>
+    <t>Log Into Dave Phone</t>
+  </si>
+  <si>
+    <t>Try to acces Dave device, it should't not be a problem becouse you crack the password. Use ssh commend in terminal to achive this. You will need name of a user try name of machine or admin if not working you will need find other clues. Snoope around there.</t>
+  </si>
+  <si>
+    <t>Spróbuj uzyskać dostęp do urządzenia Dave, nie powinno to być problemem, ponieważ złamałeś hasło. Użyj polecenia ssh w terminalu, aby to osiągnąć. Będziesz potrzebować nazwy użytkownika, spróbuj nazwy maszyny lub admin, jeśli nie działa, będziesz musiał znaleźć inne wskazówki. Poszperaj tam.</t>
+  </si>
+  <si>
+    <t>taskName2_1</t>
+  </si>
+  <si>
+    <t>taskContent2_1</t>
+  </si>
+  <si>
+    <t>taskName2_2</t>
+  </si>
+  <si>
+    <t>taskContent2_2</t>
+  </si>
+  <si>
+    <t>taskName2_3</t>
+  </si>
+  <si>
+    <t>taskContent2_3</t>
+  </si>
+  <si>
+    <t>Install dictionaryAttack</t>
+  </si>
+  <si>
+    <t>Zainstaluj dictionaryAttack</t>
+  </si>
+  <si>
+    <t>Najpierw musisz zainstalować program dictionaryAttack. Użyj terminala i polecenia apt install, aby to zrobić. Instalowanie programów nie jest zbyt bezpieczną operacją, więc może być konieczne uruchomienie polecenia apt install z pozwoleniem sudo.</t>
+  </si>
+  <si>
+    <t>First you need to install dictionaryAttack program. Use terminal and command apt install to do so. Instaling programs is not very safe operation so you may have to lunch apt install command with sudo permition.</t>
+  </si>
+  <si>
+    <t>Złam hasło Arashy</t>
+  </si>
+  <si>
+    <t>Break Arasha Password</t>
+  </si>
+  <si>
+    <t>Now when you have a tool it's time to use it. Use dictionaryAttack command to break into Arasha devise. Use -h parameter to get to know dictionaryAttack command more.</t>
+  </si>
+  <si>
+    <t>Teraz, gdy masz narzędzie, czas go użyć. Użyj polecenia dictionaryAttack, aby włamać się do Arashy devise. Użyj parametru -h, aby lepiej poznać polecenie dictionaryAttack.</t>
+  </si>
+  <si>
+    <t>Log Into Arasha PC</t>
+  </si>
+  <si>
+    <t>Zaloguj się do Arashy PC</t>
+  </si>
+  <si>
+    <t>Try to access Arasha device it shouldn't not be a problem because you crack the password. Use ssh command in terminal to achieve this. Snoop around there.</t>
+  </si>
+  <si>
+    <t>Spróbuj uzyskać dostęp do urządzenia Arasha, nie powinno to stanowić problemu, ponieważ złamałeś hasło. Użyj polecenia ssh w terminalu, aby to osiągnąć. Poszperaj tam.</t>
+  </si>
+  <si>
+    <t>taskName3_1</t>
+  </si>
+  <si>
+    <t>taskContent3_1</t>
+  </si>
+  <si>
+    <t>taskName3_2</t>
+  </si>
+  <si>
+    <t>taskContent3_2</t>
+  </si>
+  <si>
+    <t>Zainstaluj manInTheMiddle</t>
+  </si>
+  <si>
+    <t>Install manInTheMiddle</t>
+  </si>
+  <si>
+    <t>Najpierw musisz zainstalować program manInTheMiddle. Użyj terminala i polecenia apt install, aby to zrobić. Instalowanie programów nie jest zbyt bezpieczną operacją, więc może być konieczne uruchomienie polecenia apt install z pozwoleniem sudo.</t>
+  </si>
+  <si>
+    <t>First you need to install manInTheMiddle program. Use terminal and command apt install to do so. Instaling programs is not very safe operation so you may have to lunch apt install command with sudo permition.</t>
+  </si>
+  <si>
+    <t>Posłuchaj rozmowy</t>
+  </si>
+  <si>
+    <t>Listen to conversation</t>
+  </si>
+  <si>
+    <t>Teraz spróbuj wkroczyć w środek dyskusji między Arashą i Dave'em. Użyj zainstalowanego programu manInTheMiddle, użyj parametru -h, aby zobaczyć, jak używać tego programu. Przygotuj się na to, aby zrobić to szybko, inaczej możesz zostać zauważony.</t>
+  </si>
+  <si>
+    <t>Now try to get in the middle of coversation beatween Arasha and Dave. Use installed manInTheMiddle program, use -h parameter to see how to use this program. Prepare to do it fast or you coulde be spotted.</t>
+  </si>
+  <si>
+    <t>taskContent4_1</t>
+  </si>
+  <si>
+    <t>taskName4_1</t>
+  </si>
+  <si>
+    <t>taskName4_2</t>
+  </si>
+  <si>
+    <t>taskContent4_2</t>
+  </si>
+  <si>
+    <t>Maine Data Base</t>
+  </si>
+  <si>
+    <t>Maine Server</t>
+  </si>
+  <si>
+    <t>Try to access the main data base it shouldn't not be a problem because it available for all devices in network. Try to compromise database with some tricky SQL queries.</t>
+  </si>
+  <si>
+    <t>Spróbuj uzyskać dostęp do głównej bazy danych, nie powinno to stanowić problemu, ponieważ jest ona dostępna dla wszystkich urządzeń w sieci. Spróbuj skompromitować bazę danych za pomocą kilku trudnych zapytań SQL.</t>
+  </si>
+  <si>
+    <t>Try to access the main server it shouldn't not be a problem because it available for all devices in network. Look for some suspicious files like users or passwords.</t>
+  </si>
+  <si>
+    <t>Spróbuj uzyskać dostęp do głównego serwera, nie powinno to stanowić problemu, ponieważ jest on dostępny dla wszystkich urządzeń w sieci. Poszukaj podejrzanych plików, takich jak users lub passwords.</t>
+  </si>
+  <si>
+    <t>taskName5_1</t>
+  </si>
+  <si>
+    <t>taskContent5_1</t>
+  </si>
+  <si>
+    <t>taskName5_2</t>
+  </si>
+  <si>
+    <t>taskContent5_2</t>
+  </si>
+  <si>
+    <t>Zainstaluj rainbowAttack</t>
+  </si>
+  <si>
+    <t>Install rainbowAttack</t>
+  </si>
+  <si>
+    <t>Najpierw musisz zainstalować program rainbowAttack. Użyj terminala i polecenia apt install, aby to zrobić. Instalowanie programów nie jest zbyt bezpieczną operacją, więc może być konieczne uruchomienie polecenia apt install z pozwoleniem sudo.</t>
+  </si>
+  <si>
+    <t>First you need to install rainbowAttack program. Use terminal and command apt install to do so. Instaling programs is not very safe operation so you may have to lunch apt install command with sudo permition</t>
+  </si>
+  <si>
+    <t>Break big P Password</t>
+  </si>
+  <si>
+    <t>Złam hasło big P</t>
+  </si>
+  <si>
+    <t>Teraz, gdy masz narzędzie, czas go użyć. Użyj polecenia rainbowAttack, aby włamać się do big P devise. Użyj parametru -h, aby lepiej poznać polecenie rainbowAttack.</t>
+  </si>
+  <si>
+    <t>Now when you have a tool it's time to use it. Use rainbowAttack command to break into big P devise. Use -h parameter to get to know rainbowAttack command more.</t>
+  </si>
+  <si>
+    <t>taskName6_1</t>
+  </si>
+  <si>
+    <t>taskContent6_2</t>
+  </si>
+  <si>
+    <t>taskName6_2</t>
+  </si>
+  <si>
+    <t>taskContent6_3</t>
+  </si>
+  <si>
+    <t>taskName6_3</t>
+  </si>
+  <si>
+    <t>taskContent6_4</t>
+  </si>
+  <si>
+    <t>taskName6_4</t>
+  </si>
+  <si>
+    <t>taskContent6_1</t>
+  </si>
+  <si>
+    <t>Zainstaluj fakeSignature</t>
+  </si>
+  <si>
+    <t>Install fakeSignature</t>
+  </si>
+  <si>
+    <t>Najpierw musisz zainstalować program fakeSignature. Użyj terminala i polecenia apt install, aby to zrobić. Instalowanie programów nie jest zbyt bezpieczną operacją, więc może być konieczne uruchomienie polecenia apt install z pozwoleniem sudo.</t>
+  </si>
+  <si>
+    <t>First you need to install fakeSignature program. Use terminal and command apt install to do so. Instaling programs is not very safe operation so you may have to lunch apt install command with sudo permition.</t>
+  </si>
+  <si>
+    <t>Przechwyć plik</t>
+  </si>
+  <si>
+    <t>Capture File</t>
+  </si>
+  <si>
+    <t>Now try to capture file between Arasha and big P. Use installed manInTheMiddle program, use -h parameter to see how to use this program. Prepare to do it fast or you could be spotted.</t>
+  </si>
+  <si>
+    <t>Teraz spróbuj przechwycić plik pomiędzy Arashą i big P. Użyj zainstalowanego programu manInTheMiddle, użyj parametru -h, aby zobaczyć, jak używać tego programu. Przygotuj się na zrobienie tego szybko, inaczej możesz zostać zauważony.</t>
+  </si>
+  <si>
+    <t>Sign File</t>
+  </si>
+  <si>
+    <t>Podpisz plik</t>
+  </si>
+  <si>
+    <t>Gdy plik zostanie pomyślnie przechwycony, nadszedł czas na sfałszowanie podpisu notariusza. Będziesz potrzebować klucza publicznego notariusza. Użyj zainstalowanego programu fakeSignature, aby wykonać podpisanie, użyj parametru -h, aby zobaczyć, jak używać tego programu.</t>
+  </si>
+  <si>
+    <t>When you sucesfully capture the file now is time to fake notary signature. You will need notary public key. Use installed fakeSignature program to do the signing, use -h parameter to see how to use this program.</t>
+  </si>
+  <si>
+    <t>Sent Fake File</t>
+  </si>
+  <si>
+    <t>Wyślij fałszywy plik</t>
+  </si>
+  <si>
+    <t>When you have signed file you can sent it to big P via chanel you have opened with man in the middle attack.</t>
+  </si>
+  <si>
+    <t>Po podpisaniu pliku możesz go wysłać do big P poprzez kanał otwarty za pomocą ataku typu man in the middle.</t>
   </si>
 </sst>
 </file>
@@ -1198,21 +1390,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3952D7-A9B1-4A2B-A865-60B8FC46C43B}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1234,7 +1426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1470,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1289,7 +1481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1311,7 +1503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1322,7 +1514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1333,7 +1525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1536,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1355,7 +1547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1366,7 +1558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1377,7 +1569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1388,7 +1580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1399,7 +1591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1410,18 +1602,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1432,7 +1624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1443,7 +1635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1454,7 +1646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1465,7 +1657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1476,7 +1668,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1487,7 +1679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1498,7 +1690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1509,7 +1701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -1520,7 +1712,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -1531,7 +1723,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -1542,7 +1734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -1553,7 +1745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>81</v>
       </c>
@@ -1564,630 +1756,872 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>222</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>211</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>213</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>221</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>185</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>243</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>121</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>261</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>273</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>281</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>282</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>294</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>293</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>296</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>295</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>298</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>297</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
